--- a/rootpath_PicWall/app02/tools/pyxls/pyxls_results/workbook2.for.software.xlsx
+++ b/rootpath_PicWall/app02/tools/pyxls/pyxls_results/workbook2.for.software.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3270.972332946494</v>
+        <v>237.8959</v>
       </c>
     </row>
     <row r="3">
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>432.4767</v>
+        <v>203.943</v>
       </c>
     </row>
     <row r="4">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>523.2688000000001</v>
+        <v>309.0807</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>964.1634</v>
+        <v>286.3146</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>546.3246</v>
+        <v>219.9733</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>500.2566</v>
+        <v>177.1837</v>
       </c>
     </row>
     <row r="8">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>420.0617</v>
+        <v>189.9195</v>
       </c>
     </row>
     <row r="9">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>466.62</v>
+        <v>256.9812</v>
       </c>
     </row>
     <row r="10">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>543.606</v>
+        <v>194.7172</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>596.2452</v>
+        <v>216.8415</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>589.7519</v>
+        <v>207.2925</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>642.8244999999999</v>
+        <v>265.8443</v>
       </c>
     </row>
     <row r="14">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>536.154</v>
+        <v>224.8283</v>
       </c>
     </row>
     <row r="15">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>553.4349</v>
+        <v>248.2807</v>
       </c>
     </row>
     <row r="16">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>530.8089</v>
+        <v>211.4855</v>
       </c>
     </row>
     <row r="17">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>592.8421</v>
+        <v>248.5729</v>
       </c>
     </row>
     <row r="18">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>540.3147</v>
+        <v>224.1602</v>
       </c>
     </row>
     <row r="19">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>425.9066</v>
+        <v>179.7574</v>
       </c>
     </row>
     <row r="20">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>540.4529</v>
+        <v>277.7059</v>
       </c>
     </row>
     <row r="21">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>573.6273</v>
+        <v>296.2478</v>
       </c>
     </row>
     <row r="22">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>466.1051</v>
+        <v>170.444</v>
       </c>
     </row>
     <row r="23">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>583.0228</v>
+        <v>234.0469</v>
       </c>
     </row>
     <row r="24">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>708.8438</v>
+        <v>296.0264</v>
       </c>
     </row>
     <row r="25">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>551.556</v>
+        <v>276.1085</v>
       </c>
     </row>
     <row r="26">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>523.5282</v>
+        <v>239.5146</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>507.1437</v>
+        <v>185.8419</v>
       </c>
     </row>
     <row r="28">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>664.325</v>
+        <v>327.7891</v>
       </c>
     </row>
     <row r="29">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>650.6135</v>
+        <v>356.2453</v>
       </c>
     </row>
     <row r="30">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>588.6014</v>
+        <v>290.7556</v>
       </c>
     </row>
     <row r="31">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>673.7917</v>
+        <v>296.4973</v>
       </c>
     </row>
     <row r="32">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>629.4769</v>
+        <v>229.9693</v>
       </c>
     </row>
     <row r="33">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>779.4796</v>
+        <v>259.1888</v>
       </c>
     </row>
     <row r="34">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>490.1938</v>
+        <v>241.1739</v>
       </c>
     </row>
     <row r="35">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>502.8372</v>
+        <v>223.5118</v>
       </c>
     </row>
     <row r="36">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>591.6795</v>
+        <v>311.4508</v>
       </c>
     </row>
     <row r="37">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>600.5972</v>
+        <v>251.7332</v>
       </c>
     </row>
     <row r="38">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>555.5702</v>
+        <v>208.8642</v>
       </c>
     </row>
     <row r="39">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>556.2042</v>
+        <v>307.5206</v>
       </c>
     </row>
     <row r="40">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>478.4956</v>
+        <v>231.6679</v>
       </c>
     </row>
     <row r="41">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>406.2189</v>
+        <v>243.4535</v>
       </c>
     </row>
     <row r="42">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>356.9477</v>
+        <v>221.0168</v>
       </c>
     </row>
     <row r="43">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>937.6249</v>
+        <v>456.6322</v>
       </c>
     </row>
     <row r="44">
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>565.5376</v>
+        <v>270.1977</v>
       </c>
     </row>
     <row r="45">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>550.3583</v>
+        <v>317.1568</v>
       </c>
     </row>
     <row r="46">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>806.2607</v>
+        <v>342.1998</v>
       </c>
     </row>
     <row r="47">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>537.6098</v>
+        <v>301.3197</v>
       </c>
     </row>
     <row r="48">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>536.0633</v>
+        <v>296.2201</v>
       </c>
     </row>
     <row r="49">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>657.8415</v>
+        <v>268.5258</v>
       </c>
     </row>
     <row r="50">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>369.6508</v>
+        <v>206.4684</v>
       </c>
     </row>
     <row r="51">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>502.1199</v>
+        <v>233.9605</v>
       </c>
     </row>
     <row r="52">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>666.211</v>
+        <v>293.2858</v>
       </c>
     </row>
     <row r="53">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>570.9909</v>
+        <v>302.6149</v>
       </c>
     </row>
     <row r="54">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>458.1179</v>
+        <v>187.7361</v>
       </c>
     </row>
     <row r="55">
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>902.3713</v>
+        <v>296.054</v>
       </c>
     </row>
     <row r="56">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>739.4526</v>
+        <v>349.0236</v>
       </c>
     </row>
     <row r="57">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>397.1542</v>
+        <v>204.2454</v>
       </c>
     </row>
     <row r="58">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>565.588</v>
+        <v>239.8592</v>
       </c>
     </row>
     <row r="59">
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>516.2762</v>
+        <v>210.4599</v>
       </c>
     </row>
     <row r="60">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>393.0155</v>
+        <v>218.743</v>
       </c>
     </row>
     <row r="61">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>537.473</v>
+        <v>382.8977</v>
       </c>
     </row>
     <row r="62">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>598.6677</v>
+        <v>262.0185</v>
       </c>
     </row>
     <row r="63">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>762.8680000000001</v>
+        <v>398.0024</v>
       </c>
     </row>
     <row r="64">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>837.0434</v>
+        <v>338.1093</v>
       </c>
     </row>
     <row r="65">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>433.2456</v>
+        <v>202.4055</v>
       </c>
     </row>
     <row r="66">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>997.2456</v>
+        <v>392.1399</v>
       </c>
     </row>
     <row r="67">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>455.1234</v>
+        <v>227.5413</v>
       </c>
     </row>
     <row r="68">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>442.1031</v>
+        <v>250.3804</v>
       </c>
     </row>
     <row r="69">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>466.2423</v>
+        <v>211.2739</v>
       </c>
     </row>
     <row r="70">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>440.4435</v>
+        <v>249.5716</v>
       </c>
     </row>
     <row r="71">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>612.6771</v>
+        <v>323.3395</v>
       </c>
     </row>
     <row r="72">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>867.8858</v>
+        <v>405.0245</v>
       </c>
     </row>
     <row r="73">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>689.8579</v>
+        <v>215.5285</v>
       </c>
     </row>
     <row r="74">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>630.793</v>
+        <v>206.2399</v>
       </c>
     </row>
     <row r="75">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>437.8261</v>
+        <v>274.173</v>
       </c>
     </row>
     <row r="76">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>617.9353</v>
+        <v>426.681</v>
       </c>
     </row>
     <row r="77">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>572.2802</v>
+        <v>220.0649</v>
       </c>
     </row>
     <row r="78">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>548.5477</v>
+        <v>211.1331</v>
       </c>
     </row>
     <row r="79">
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>460.0138</v>
+        <v>214.2748</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>695.385</v>
+        <v>280.8822</v>
       </c>
     </row>
     <row r="81">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>704.4305000000001</v>
+        <v>421.7954</v>
       </c>
     </row>
     <row r="82">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>593.731</v>
+        <v>309.6547</v>
       </c>
     </row>
     <row r="83">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>534.9318</v>
+        <v>244.1289</v>
       </c>
     </row>
     <row r="84">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>605.9389</v>
+        <v>273.9596</v>
       </c>
     </row>
     <row r="85">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>492.3651</v>
+        <v>220.9089</v>
       </c>
     </row>
     <row r="86">
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>487.5159</v>
+        <v>249.1203</v>
       </c>
     </row>
     <row r="87">
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>656.2743</v>
+        <v>403.2202</v>
       </c>
     </row>
     <row r="88">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>609.0844</v>
+        <v>280.1866</v>
       </c>
     </row>
     <row r="89">
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>494.2085</v>
+        <v>274.9821</v>
       </c>
     </row>
     <row r="90">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>609.4358999999999</v>
+        <v>227.1171</v>
       </c>
     </row>
     <row r="91">
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1035.2095</v>
+        <v>420.3403</v>
       </c>
     </row>
     <row r="92">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>565.689</v>
+        <v>271.8672</v>
       </c>
     </row>
     <row r="93">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>570.6823000000001</v>
+        <v>284.2594</v>
       </c>
     </row>
     <row r="94">
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>751.646</v>
+        <v>347.3018</v>
       </c>
     </row>
     <row r="95">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>591.2378</v>
+        <v>192.8327</v>
       </c>
     </row>
     <row r="96">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>M23</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2749,11 +2749,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3270.972332946494</v>
+        <v>272.2176</v>
       </c>
     </row>
     <row r="97">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2774,11 +2774,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>465.7601670535061</v>
+        <v>237.8959</v>
       </c>
     </row>
     <row r="98">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>480.2729</v>
+        <v>201.9668</v>
       </c>
     </row>
     <row r="99">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2824,11 +2824,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>606.8094</v>
+        <v>266.2912</v>
       </c>
     </row>
     <row r="100">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2849,11 +2849,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>492.2886</v>
+        <v>253.4451</v>
       </c>
     </row>
     <row r="101">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>745.3679</v>
+        <v>288.4261</v>
       </c>
     </row>
     <row r="102">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2899,11 +2899,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>573.4715</v>
+        <v>341.5725</v>
       </c>
     </row>
     <row r="103">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>460.0806</v>
+        <v>266.3808</v>
       </c>
     </row>
     <row r="104">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2949,11 +2949,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>464.2609</v>
+        <v>206.4012</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2974,11 +2974,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>491.3723</v>
+        <v>241.8367</v>
       </c>
     </row>
     <row r="106">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>458.4826</v>
+        <v>244.5058</v>
       </c>
     </row>
     <row r="107">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3024,11 +3024,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>482.9084</v>
+        <v>333.0968</v>
       </c>
     </row>
     <row r="108">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3049,11 +3049,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>443.6198</v>
+        <v>316.0179</v>
       </c>
     </row>
     <row r="109">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3074,11 +3074,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>539.9463</v>
+        <v>223.7328</v>
       </c>
     </row>
     <row r="110">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3099,11 +3099,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>419.0615</v>
+        <v>290.276</v>
       </c>
     </row>
     <row r="111">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3124,11 +3124,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>405.3354</v>
+        <v>205.6375</v>
       </c>
     </row>
     <row r="112">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3149,11 +3149,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>615.6537</v>
+        <v>231.0933</v>
       </c>
     </row>
     <row r="113">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3174,11 +3174,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>604.263</v>
+        <v>425.6491</v>
       </c>
     </row>
     <row r="114">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3199,11 +3199,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>583.99</v>
+        <v>235.982</v>
       </c>
     </row>
     <row r="115">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3224,11 +3224,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>471.762</v>
+        <v>327.146</v>
       </c>
     </row>
     <row r="116">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3249,11 +3249,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>534.6609999999999</v>
+        <v>292.2577</v>
       </c>
     </row>
     <row r="117">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3274,11 +3274,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>601.053</v>
+        <v>303.2812</v>
       </c>
     </row>
     <row r="118">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>715.0031</v>
+        <v>436.1984</v>
       </c>
     </row>
     <row r="119">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>L5</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>622.4886</v>
+        <v>400.721</v>
       </c>
     </row>
     <row r="120">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3349,11 +3349,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>929.5093000000001</v>
+        <v>333.4825</v>
       </c>
     </row>
     <row r="121">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3374,11 +3374,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>519.4933</v>
+        <v>602.5391</v>
       </c>
     </row>
     <row r="122">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>604.8976</v>
+        <v>323.7691</v>
       </c>
     </row>
     <row r="123">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3424,11 +3424,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>518.3458000000001</v>
+        <v>384.571</v>
       </c>
     </row>
     <row r="124">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3449,11 +3449,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>535.7913</v>
+        <v>222.5227</v>
       </c>
     </row>
     <row r="125">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3474,11 +3474,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>547.1266000000001</v>
+        <v>261.2622</v>
       </c>
     </row>
     <row r="126">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3499,11 +3499,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>489.9285</v>
+        <v>286.5477</v>
       </c>
     </row>
     <row r="127">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3524,11 +3524,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>485.722</v>
+        <v>336.5648</v>
       </c>
     </row>
     <row r="128">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3549,11 +3549,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>522.6645</v>
+        <v>243.3226</v>
       </c>
     </row>
     <row r="129">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3574,11 +3574,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>443.8684</v>
+        <v>227.8522</v>
       </c>
     </row>
     <row r="130">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3599,11 +3599,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>568.6846</v>
+        <v>262.8228</v>
       </c>
     </row>
     <row r="131">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3624,11 +3624,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>723.329</v>
+        <v>315.3886</v>
       </c>
     </row>
     <row r="132">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>637.072</v>
+        <v>251.055</v>
       </c>
     </row>
     <row r="133">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>J9</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3674,11 +3674,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>538.4321</v>
+        <v>315.0436</v>
       </c>
     </row>
     <row r="134">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>J9</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3699,11 +3699,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>497.7024</v>
+        <v>281.6063</v>
       </c>
     </row>
     <row r="135">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>N9</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>531.8336</v>
+        <v>296.1647</v>
       </c>
     </row>
     <row r="136">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>N9</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3749,11 +3749,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>590.5765</v>
+        <v>246.8491</v>
       </c>
     </row>
     <row r="137">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3774,11 +3774,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>540.1304</v>
+        <v>264.1376</v>
       </c>
     </row>
     <row r="138">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>480.6737</v>
+        <v>265.8666</v>
       </c>
     </row>
     <row r="139">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3824,11 +3824,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>576.0262</v>
+        <v>334.7157</v>
       </c>
     </row>
     <row r="140">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>397.3286</v>
+        <v>274.7913</v>
       </c>
     </row>
     <row r="141">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3874,11 +3874,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>577.7595</v>
+        <v>239.2072</v>
       </c>
     </row>
     <row r="142">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>L11</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3899,11 +3899,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>465.352</v>
+        <v>297.3322</v>
       </c>
     </row>
     <row r="143">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>N11</t>
+          <t>L11</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3924,11 +3924,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>418.3973</v>
+        <v>223.796</v>
       </c>
     </row>
     <row r="144">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>631.9884</v>
+        <v>217.2132</v>
       </c>
     </row>
     <row r="145">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>B13</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>756.4018</v>
+        <v>406.3231</v>
       </c>
     </row>
     <row r="146">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3999,11 +3999,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>709.2405</v>
+        <v>587.4554000000001</v>
       </c>
     </row>
     <row r="147">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4024,11 +4024,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>450.1439</v>
+        <v>368.8976</v>
       </c>
     </row>
     <row r="148">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>H13</t>
+          <t>F13</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4049,11 +4049,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>458.5489</v>
+        <v>305.3568</v>
       </c>
     </row>
     <row r="149">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>J13</t>
+          <t>H13</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4074,11 +4074,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>534.3454</v>
+        <v>233.9259</v>
       </c>
     </row>
     <row r="150">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>J13</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4099,11 +4099,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>538.0663</v>
+        <v>400.3665</v>
       </c>
     </row>
     <row r="151">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>N13</t>
+          <t>L13</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4124,11 +4124,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>527.7142</v>
+        <v>288.8205</v>
       </c>
     </row>
     <row r="152">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4149,11 +4149,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>520.3893</v>
+        <v>276.1807</v>
       </c>
     </row>
     <row r="153">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4174,11 +4174,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>444.8657</v>
+        <v>250.8959</v>
       </c>
     </row>
     <row r="154">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4199,11 +4199,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>571.0423</v>
+        <v>285.8238</v>
       </c>
     </row>
     <row r="155">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>F15</t>
+          <t>D15</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4224,11 +4224,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>431.0937</v>
+        <v>420.5635</v>
       </c>
     </row>
     <row r="156">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>H15</t>
+          <t>F15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>517.4146</v>
+        <v>256.3988</v>
       </c>
     </row>
     <row r="157">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>J15</t>
+          <t>H15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4274,11 +4274,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>610.7282</v>
+        <v>362.5647</v>
       </c>
     </row>
     <row r="158">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>L15</t>
+          <t>J15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>607.7989</v>
+        <v>311.7573</v>
       </c>
     </row>
     <row r="159">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>N15</t>
+          <t>L15</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4324,11 +4324,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>459.3468</v>
+        <v>439.5269</v>
       </c>
     </row>
     <row r="160">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>N15</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4349,11 +4349,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>371.1884</v>
+        <v>283.0404</v>
       </c>
     </row>
     <row r="161">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B17</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>477.666</v>
+        <v>204.6016</v>
       </c>
     </row>
     <row r="162">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>D17</t>
+          <t>B17</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4399,11 +4399,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>462.9718</v>
+        <v>305.8875</v>
       </c>
     </row>
     <row r="163">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>F17</t>
+          <t>D17</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4424,11 +4424,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>451.813</v>
+        <v>348.7163</v>
       </c>
     </row>
     <row r="164">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>H17</t>
+          <t>F17</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4449,11 +4449,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>430.6835</v>
+        <v>234.3932</v>
       </c>
     </row>
     <row r="165">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>J17</t>
+          <t>H17</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4474,11 +4474,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>470.3262</v>
+        <v>200.3193</v>
       </c>
     </row>
     <row r="166">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>L17</t>
+          <t>J17</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4499,11 +4499,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>683.6058</v>
+        <v>289.9572</v>
       </c>
     </row>
     <row r="167">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>N17</t>
+          <t>L17</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4524,11 +4524,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>421.2066</v>
+        <v>296.0817</v>
       </c>
     </row>
     <row r="168">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>N17</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4549,11 +4549,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>439.8015</v>
+        <v>285.2063</v>
       </c>
     </row>
     <row r="169">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>785.1788</v>
+        <v>294.5675</v>
       </c>
     </row>
     <row r="170">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>D19</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4599,11 +4599,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>473.8436</v>
+        <v>358.0167</v>
       </c>
     </row>
     <row r="171">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>F19</t>
+          <t>D19</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>661.0673</v>
+        <v>232.1772</v>
       </c>
     </row>
     <row r="172">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>H19</t>
+          <t>F19</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4649,11 +4649,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>550.5974</v>
+        <v>334.433</v>
       </c>
     </row>
     <row r="173">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>J19</t>
+          <t>H19</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>557.4766</v>
+        <v>334.6096</v>
       </c>
     </row>
     <row r="174">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>L19</t>
+          <t>J19</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4699,11 +4699,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>525.7001</v>
+        <v>351.1514</v>
       </c>
     </row>
     <row r="175">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>N19</t>
+          <t>L19</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4724,11 +4724,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>527.3189</v>
+        <v>358.0167</v>
       </c>
     </row>
     <row r="176">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>N19</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4749,11 +4749,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>478.5679</v>
+        <v>281.5062</v>
       </c>
     </row>
     <row r="177">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4774,11 +4774,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>476.8391</v>
+        <v>290.7022</v>
       </c>
     </row>
     <row r="178">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>D21</t>
+          <t>B21</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>568.8889</v>
+        <v>225.3882</v>
       </c>
     </row>
     <row r="179">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>F21</t>
+          <t>D21</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4824,11 +4824,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>542.2104</v>
+        <v>304.5641</v>
       </c>
     </row>
     <row r="180">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>H21</t>
+          <t>F21</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4849,11 +4849,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>447.3471</v>
+        <v>216.4119</v>
       </c>
     </row>
     <row r="181">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>J21</t>
+          <t>H21</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4874,11 +4874,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>458.6817</v>
+        <v>312.0337</v>
       </c>
     </row>
     <row r="182">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>L21</t>
+          <t>J21</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4899,11 +4899,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>653.2295</v>
+        <v>260.339</v>
       </c>
     </row>
     <row r="183">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>N21</t>
+          <t>L21</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4924,11 +4924,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>439.771</v>
+        <v>533.1763</v>
       </c>
     </row>
     <row r="184">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>N21</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>432.0933</v>
+        <v>287.4838</v>
       </c>
     </row>
     <row r="185">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>B23</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4974,11 +4974,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>380.918</v>
+        <v>308.7795</v>
       </c>
     </row>
     <row r="186">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>D23</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>587.1832000000001</v>
+        <v>210.0273</v>
       </c>
     </row>
     <row r="187">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>F23</t>
+          <t>D23</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5024,11 +5024,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>471.2007</v>
+        <v>350.3359</v>
       </c>
     </row>
     <row r="188">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>H23</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5049,11 +5049,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>614.9964</v>
+        <v>252.9998</v>
       </c>
     </row>
     <row r="189">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>J23</t>
+          <t>H23</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5074,11 +5074,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>362.627</v>
+        <v>261.9535</v>
       </c>
     </row>
     <row r="190">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>L23</t>
+          <t>J23</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5099,11 +5099,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>404.5073</v>
+        <v>315.0123</v>
       </c>
     </row>
     <row r="191">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>L23</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5124,22 +5124,22 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>465.7601670535061</v>
+        <v>327.4165</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>TSVPlate2</t>
+          <t>TempPlate1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>N23</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5149,22 +5149,22 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>163.2675</v>
+        <v>433.8092</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TSVPlate2</t>
+          <t>TempPlate1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5174,11 +5174,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>163.2675</v>
+        <v>201.9668</v>
       </c>
     </row>
     <row r="194">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>O7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>O7</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>M11</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>K7</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>M11</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>O7</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>O3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>G13</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>M11</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>M9</t>
+          <t>O7</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>M9</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>M9</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>M9</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>M7</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -7524,11 +7524,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>100</v>
+        <v>163.2675</v>
       </c>
     </row>
     <row r="288">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -7549,11 +7549,11 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>100</v>
+        <v>163.2675</v>
       </c>
     </row>
     <row r="289">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -7574,11 +7574,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>100</v>
+        <v>163.2675</v>
       </c>
     </row>
     <row r="290">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>N12</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -7964,17 +7964,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
+          <t>N10</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
           <t>H2</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>DestPlate1</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>C3</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -8114,7 +8114,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>F14</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>H14</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>L10</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>L10</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N12</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>J10</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>L10</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="E369" t="n">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="E374" t="n">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="E375" t="n">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>L10</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>J10</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>N10</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="E380" t="n">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>N10</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -9874,7 +9874,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>{A24:P24}</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -9899,11 +9899,11 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="E382" t="n">
-        <v>2823.9829</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>{A24:P24}</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -9924,11 +9924,11 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2606.6543</v>
+        <v>100</v>
       </c>
     </row>
     <row r="384">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>{A24:P24}</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -9949,11 +9949,11 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>2280.2805</v>
+        <v>100</v>
       </c>
     </row>
     <row r="385">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>{A24:P24}</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -9974,11 +9974,11 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>2445.04</v>
+        <v>100</v>
       </c>
     </row>
     <row r="386">
@@ -9999,11 +9999,11 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2663.0044</v>
+        <v>3296.8698</v>
       </c>
     </row>
     <row r="387">
@@ -10024,11 +10024,11 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E387" t="n">
-        <v>2856.5902</v>
+        <v>3266.4983</v>
       </c>
     </row>
     <row r="388">
@@ -10049,11 +10049,11 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E388" t="n">
-        <v>2805.8516</v>
+        <v>3174.2067</v>
       </c>
     </row>
     <row r="389">
@@ -10074,11 +10074,11 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>2701.7542</v>
+        <v>3161.9918</v>
       </c>
     </row>
     <row r="390">
@@ -10099,11 +10099,11 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>2682.0047</v>
+        <v>3175.1867</v>
       </c>
     </row>
     <row r="391">
@@ -10124,11 +10124,11 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>2664.0722</v>
+        <v>3293.168</v>
       </c>
     </row>
     <row r="392">
@@ -10149,11 +10149,11 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>2650.2882</v>
+        <v>3340.4118</v>
       </c>
     </row>
     <row r="393">
@@ -10174,11 +10174,11 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>2660.6322</v>
+        <v>3237.9146</v>
       </c>
     </row>
     <row r="394">
@@ -10199,11 +10199,11 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E394" t="n">
-        <v>2764.2361</v>
+        <v>3297.5095</v>
       </c>
     </row>
     <row r="395">
@@ -10224,11 +10224,11 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="E395" t="n">
-        <v>2800.5882</v>
+        <v>3186.7942</v>
       </c>
     </row>
     <row r="396">
@@ -10249,11 +10249,11 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E396" t="n">
-        <v>2528.2367</v>
+        <v>3213.4221</v>
       </c>
     </row>
     <row r="397">
@@ -10274,11 +10274,11 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E397" t="n">
-        <v>2592.1548</v>
+        <v>3247.1554</v>
       </c>
     </row>
     <row r="398">
@@ -10299,11 +10299,11 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E398" t="n">
-        <v>2726.8359</v>
+        <v>3221.6282</v>
       </c>
     </row>
     <row r="399">
@@ -10324,11 +10324,11 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E399" t="n">
-        <v>2724.5176</v>
+        <v>3282.8143</v>
       </c>
     </row>
     <row r="400">
@@ -10349,11 +10349,11 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="E400" t="n">
-        <v>2628.4442</v>
+        <v>3294.1537</v>
       </c>
     </row>
     <row r="401">
@@ -10374,11 +10374,11 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2669.5744</v>
+        <v>3062.5105</v>
       </c>
     </row>
     <row r="402">
@@ -10399,11 +10399,11 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>2438.7066</v>
+        <v>3276.5903</v>
       </c>
     </row>
     <row r="403">
@@ -10424,11 +10424,11 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2405.4001</v>
+        <v>3229.8291</v>
       </c>
     </row>
     <row r="404">
@@ -10449,11 +10449,11 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E404" t="n">
-        <v>2255.6672</v>
+        <v>3166.7689</v>
       </c>
     </row>
     <row r="405">
@@ -10474,11 +10474,11 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>2693.711</v>
+        <v>3137.2035</v>
       </c>
     </row>
     <row r="406">
@@ -10499,11 +10499,11 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2624.6912</v>
+        <v>3130.0901</v>
       </c>
     </row>
     <row r="407">
@@ -10524,11 +10524,11 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2554.0617</v>
+        <v>3101.9646</v>
       </c>
     </row>
     <row r="408">
@@ -10549,11 +10549,11 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2550.3277</v>
+        <v>3107.2236</v>
       </c>
     </row>
     <row r="409">
@@ -10574,11 +10574,11 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2601.0045</v>
+        <v>2858.0849</v>
       </c>
     </row>
     <row r="410">
@@ -10599,11 +10599,11 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>2573.0123</v>
+        <v>3173.4488</v>
       </c>
     </row>
     <row r="411">
@@ -10624,11 +10624,11 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2621.5336</v>
+        <v>3166.3196</v>
       </c>
     </row>
     <row r="412">
@@ -10649,11 +10649,11 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2434.5884</v>
+        <v>3186.4207</v>
       </c>
     </row>
     <row r="413">
@@ -10674,11 +10674,11 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2802.6703</v>
+        <v>3119.225</v>
       </c>
     </row>
     <row r="414">
@@ -10699,11 +10699,11 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E414" t="n">
-        <v>2665.2107</v>
+        <v>3159.4292</v>
       </c>
     </row>
     <row r="415">
@@ -10724,11 +10724,11 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2421.724</v>
+        <v>3103.6704</v>
       </c>
     </row>
     <row r="416">
@@ -10749,11 +10749,11 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2499.0633</v>
+        <v>3263.4406</v>
       </c>
     </row>
     <row r="417">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="E417" t="n">
-        <v>2642.7302</v>
+        <v>3249.6915</v>
       </c>
     </row>
     <row r="418">
@@ -10799,11 +10799,11 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>2682.8259</v>
+        <v>3232.7358</v>
       </c>
     </row>
     <row r="419">
@@ -10824,11 +10824,11 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2726.4033</v>
+        <v>3197.8321</v>
       </c>
     </row>
     <row r="420">
@@ -10849,11 +10849,11 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2739.9371</v>
+        <v>3174.2267</v>
       </c>
     </row>
     <row r="421">
@@ -10874,11 +10874,11 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2839.6544</v>
+        <v>3169.9557</v>
       </c>
     </row>
     <row r="422">
@@ -10899,11 +10899,11 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2318.4339</v>
+        <v>3246.262</v>
       </c>
     </row>
     <row r="423">
@@ -10924,11 +10924,11 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>2595.1687</v>
+        <v>3133.0472</v>
       </c>
     </row>
     <row r="424">
@@ -10949,11 +10949,11 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2789.0456</v>
+        <v>3258.2155</v>
       </c>
     </row>
     <row r="425">
@@ -10974,11 +10974,11 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="E425" t="n">
-        <v>2352.7123</v>
+        <v>3229.1414</v>
       </c>
     </row>
     <row r="426">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2733.7707</v>
+        <v>3249.8491</v>
       </c>
     </row>
     <row r="427">
@@ -11024,11 +11024,11 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2782.2719</v>
+        <v>2945.3846</v>
       </c>
     </row>
     <row r="428">
@@ -11049,11 +11049,11 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="E428" t="n">
-        <v>2446.9026</v>
+        <v>3191.7435</v>
       </c>
     </row>
     <row r="429">
@@ -11074,11 +11074,11 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="E429" t="n">
-        <v>2610.6799</v>
+        <v>3180.3685</v>
       </c>
     </row>
     <row r="430">
@@ -11099,11 +11099,11 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="E430" t="n">
-        <v>2525.3721</v>
+        <v>3097.2005</v>
       </c>
     </row>
     <row r="431">
@@ -11124,11 +11124,11 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E431" t="n">
-        <v>2620.3776</v>
+        <v>3211.6168</v>
       </c>
     </row>
     <row r="432">
@@ -11149,11 +11149,11 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="E432" t="n">
-        <v>2707.1927</v>
+        <v>3223.2992</v>
       </c>
     </row>
     <row r="433">
@@ -11174,11 +11174,11 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="E433" t="n">
-        <v>2744.2692</v>
+        <v>3061.8836</v>
       </c>
     </row>
     <row r="434">
@@ -11199,11 +11199,11 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2296.2949</v>
+        <v>2942.8087</v>
       </c>
     </row>
     <row r="435">
@@ -11224,11 +11224,11 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="E435" t="n">
-        <v>2469.5657</v>
+        <v>3133.8744</v>
       </c>
     </row>
     <row r="436">
@@ -11249,11 +11249,11 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2819.189</v>
+        <v>3138.0899</v>
       </c>
     </row>
     <row r="437">
@@ -11274,11 +11274,11 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2726.2788</v>
+        <v>3200.1917</v>
       </c>
     </row>
     <row r="438">
@@ -11299,11 +11299,11 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2649.414</v>
+        <v>3148.6299</v>
       </c>
     </row>
     <row r="439">
@@ -11324,11 +11324,11 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2912.6233</v>
+        <v>3151.858</v>
       </c>
     </row>
     <row r="440">
@@ -11349,11 +11349,11 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2681.8449</v>
+        <v>3111.5282</v>
       </c>
     </row>
     <row r="441">
@@ -11374,11 +11374,11 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="E441" t="n">
-        <v>2527.3366</v>
+        <v>3281.5912</v>
       </c>
     </row>
     <row r="442">
@@ -11399,11 +11399,11 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="E442" t="n">
-        <v>2366.0656</v>
+        <v>3211.0495</v>
       </c>
     </row>
     <row r="443">
@@ -11424,11 +11424,11 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2440.3423</v>
+        <v>3105.7091</v>
       </c>
     </row>
     <row r="444">
@@ -11449,11 +11449,11 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="E444" t="n">
-        <v>2932.2985</v>
+        <v>3261.5907</v>
       </c>
     </row>
     <row r="445">
@@ -11474,11 +11474,11 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="E445" t="n">
-        <v>2261.8209</v>
+        <v>2991.2701</v>
       </c>
     </row>
     <row r="446">
@@ -11499,11 +11499,11 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="E446" t="n">
-        <v>2818.6373</v>
+        <v>3162.9567</v>
       </c>
     </row>
     <row r="447">
@@ -11524,11 +11524,11 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2842.8164</v>
+        <v>2899.2032</v>
       </c>
     </row>
     <row r="448">
@@ -11549,11 +11549,11 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2839.8067</v>
+        <v>3115.5828</v>
       </c>
     </row>
     <row r="449">
@@ -11574,11 +11574,11 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2825.9628</v>
+        <v>3329.7254</v>
       </c>
     </row>
     <row r="450">
@@ -11599,11 +11599,11 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="E450" t="n">
-        <v>2440.4496</v>
+        <v>3038.7051</v>
       </c>
     </row>
     <row r="451">
@@ -11624,11 +11624,11 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2447.6401</v>
+        <v>3160.4749</v>
       </c>
     </row>
     <row r="452">
@@ -11649,11 +11649,11 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2607.0731</v>
+        <v>3251.9589</v>
       </c>
     </row>
     <row r="453">
@@ -11674,11 +11674,11 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2320.7607</v>
+        <v>3325.1393</v>
       </c>
     </row>
     <row r="454">
@@ -11699,11 +11699,11 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="E454" t="n">
-        <v>2825.0628</v>
+        <v>3197.2037</v>
       </c>
     </row>
     <row r="455">
@@ -11724,11 +11724,11 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="E455" t="n">
-        <v>2457.7299</v>
+        <v>3117.3113</v>
       </c>
     </row>
     <row r="456">
@@ -11749,11 +11749,11 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2613.8549</v>
+        <v>3046.5017</v>
       </c>
     </row>
     <row r="457">
@@ -11774,11 +11774,11 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2630.7082</v>
+        <v>3226.6365</v>
       </c>
     </row>
     <row r="458">
@@ -11799,11 +11799,11 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2751.0186</v>
+        <v>3172.4759</v>
       </c>
     </row>
     <row r="459">
@@ -11824,11 +11824,11 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="E459" t="n">
-        <v>2514.0286</v>
+        <v>3230.3823</v>
       </c>
     </row>
     <row r="460">
@@ -11849,11 +11849,11 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="E460" t="n">
-        <v>2553.7341</v>
+        <v>2975.6185</v>
       </c>
     </row>
     <row r="461">
@@ -11874,11 +11874,11 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="E461" t="n">
-        <v>2666.1624</v>
+        <v>3182.058</v>
       </c>
     </row>
     <row r="462">
@@ -11899,11 +11899,11 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="E462" t="n">
-        <v>2632.9118</v>
+        <v>3174.448</v>
       </c>
     </row>
     <row r="463">
@@ -11924,11 +11924,11 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="E463" t="n">
-        <v>2588.5832</v>
+        <v>3164.441</v>
       </c>
     </row>
     <row r="464">
@@ -11949,11 +11949,11 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="E464" t="n">
-        <v>2797.0203</v>
+        <v>3174.3441</v>
       </c>
     </row>
     <row r="465">
@@ -11974,11 +11974,11 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="E465" t="n">
-        <v>2790.5349</v>
+        <v>3024.2349</v>
       </c>
     </row>
     <row r="466">
@@ -11999,11 +11999,11 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="E466" t="n">
-        <v>2427.2287</v>
+        <v>3201.6896</v>
       </c>
     </row>
     <row r="467">
@@ -12024,11 +12024,11 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="E467" t="n">
-        <v>2687.8771</v>
+        <v>3188.0395</v>
       </c>
     </row>
     <row r="468">
@@ -12049,11 +12049,11 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="E468" t="n">
-        <v>2810.4307</v>
+        <v>3246.361</v>
       </c>
     </row>
     <row r="469">
@@ -12074,11 +12074,11 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="E469" t="n">
-        <v>2746.3786</v>
+        <v>3203.7899</v>
       </c>
     </row>
     <row r="470">
@@ -12099,11 +12099,11 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="E470" t="n">
-        <v>2114.3398</v>
+        <v>3227.2732</v>
       </c>
     </row>
     <row r="471">
@@ -12124,11 +12124,11 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="E471" t="n">
-        <v>2699.8428</v>
+        <v>2800.336</v>
       </c>
     </row>
     <row r="472">
@@ -12149,11 +12149,11 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>2551.0538</v>
+        <v>3169.0621</v>
       </c>
     </row>
     <row r="473">
@@ -12174,11 +12174,11 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="E473" t="n">
-        <v>2622.4595</v>
+        <v>3152.9709</v>
       </c>
     </row>
     <row r="474">
@@ -12199,11 +12199,186 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>3299.5881</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>B12</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>2966.0563</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>3211.8655</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>3190.5196</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>3074.4184</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
           <t>F12</t>
         </is>
       </c>
-      <c r="E474" t="n">
-        <v>2740.9874</v>
+      <c r="E479" t="n">
+        <v>3216.4833</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>3030.7057</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>H12</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>3296.8698</v>
       </c>
     </row>
   </sheetData>
